--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.284000000000001</v>
+        <v>-7.284000000000002</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.142</v>
+        <v>-12.721</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.196</v>
+        <v>16.736</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.782</v>
+        <v>17.877</v>
       </c>
     </row>
     <row r="13">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.718</v>
+        <v>-12.509</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.168</v>
+        <v>-12.499</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.016</v>
+        <v>-12.594</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.004</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.254</v>
+        <v>-11.582</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.901999999999999</v>
+        <v>-7.481</v>
       </c>
       <c r="E25" t="n">
-        <v>16.67</v>
+        <v>16.901</v>
       </c>
     </row>
     <row r="26">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.616</v>
+        <v>-13.139</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.276</v>
+        <v>-8.467000000000002</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.054</v>
+        <v>-12.2</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.696000000000002</v>
+        <v>-8.301</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.498</v>
+        <v>-7.846000000000001</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.112</v>
+        <v>-7.423</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.418</v>
+        <v>16.583</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.327999999999999</v>
+        <v>-8.373999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.508</v>
+        <v>-7.423</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,13 +1335,13 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-10.916</v>
+        <v>-12.193</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>17.176</v>
+        <v>17.161</v>
       </c>
     </row>
     <row r="54">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.890000000000001</v>
+        <v>-8.065000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.379999999999999</v>
+        <v>-8.122</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,13 +1403,13 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.672</v>
+        <v>-13.401</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.790000000000001</v>
+        <v>-8.537000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>16.476</v>
+        <v>16.687</v>
       </c>
     </row>
     <row r="58">
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.714</v>
+        <v>-13.063</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.49</v>
+        <v>16.628</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.782</v>
+        <v>17.609</v>
       </c>
     </row>
     <row r="64">
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.956</v>
+        <v>-10.683</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.864</v>
+        <v>17.547</v>
       </c>
     </row>
     <row r="71">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.004000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.888</v>
+        <v>-12.491</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.08</v>
+        <v>-13.169</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.952</v>
+        <v>16.655</v>
       </c>
     </row>
     <row r="87">
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-7.152000000000001</v>
+        <v>-6.884</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.303999999999999</v>
+        <v>-7.442</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.078</v>
+        <v>-10.621</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.07</v>
+        <v>-6.863</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.338</v>
+        <v>-11.886</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.184</v>
+        <v>16.494</v>
       </c>
     </row>
     <row r="99">
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.512</v>
+        <v>16.805</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.502</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>
